--- a/fastqFiles/fastq_spikein_hbrown_06.11.20.xlsx
+++ b/fastqFiles/fastq_spikein_hbrown_06.11.20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7213BF87-1393-DD4C-9C9D-0330E73C0A2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165E1DC9-19CB-5F49-A90F-543753CE255C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="460" windowWidth="33600" windowHeight="18920" xr2:uid="{A522515E-7FE3-F04A-A034-7C6A42931E3B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18920" xr2:uid="{A522515E-7FE3-F04A-A034-7C6A42931E3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>NextSeq</t>
   </si>
   <si>
-    <t>fullRNASeq</t>
-  </si>
-  <si>
     <t>HighOutput</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>Brent_large_6e_26_GTAC_26_SIC_Index2_06_TCAACTGATC_GACCTTGT_S70_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>spikein</t>
   </si>
 </sst>
 </file>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CA217D-0C43-0B40-A462-5F05C8B33EE8}">
   <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -712,10 +712,10 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -727,10 +727,10 @@
         <v>11</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H2" s="6">
         <v>62.6</v>
@@ -743,7 +743,7 @@
         <v>26166</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L2" s="2"/>
       <c r="O2" s="2"/>
@@ -760,10 +760,10 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -775,10 +775,10 @@
         <v>11</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H3" s="6">
         <v>9.17</v>
@@ -791,15 +791,15 @@
         <v>31242</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -811,10 +811,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H4" s="6">
         <v>160</v>
@@ -827,15 +827,15 @@
         <v>31316</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
@@ -847,10 +847,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H5" s="6">
         <v>68.400000000000006</v>
@@ -863,15 +863,15 @@
         <v>31830</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
@@ -883,10 +883,10 @@
         <v>11</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H6" s="6">
         <v>106</v>
@@ -899,15 +899,15 @@
         <v>26137</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
@@ -919,10 +919,10 @@
         <v>11</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H7" s="6">
         <v>37.4</v>
@@ -935,15 +935,15 @@
         <v>25895</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3">
         <v>7</v>
@@ -955,10 +955,10 @@
         <v>11</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H8" s="6">
         <v>60.9</v>
@@ -971,15 +971,15 @@
         <v>28679</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3">
         <v>8</v>
@@ -991,10 +991,10 @@
         <v>11</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H9" s="6">
         <v>34</v>
@@ -1007,15 +1007,15 @@
         <v>24884</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3">
         <v>9</v>
@@ -1027,10 +1027,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H10" s="6">
         <v>158</v>
@@ -1043,15 +1043,15 @@
         <v>31535</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3">
         <v>10</v>
@@ -1063,10 +1063,10 @@
         <v>11</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H11" s="6">
         <v>128</v>
@@ -1079,15 +1079,15 @@
         <v>20100</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3">
         <v>11</v>
@@ -1099,10 +1099,10 @@
         <v>11</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H12" s="6">
         <v>53.1</v>
@@ -1115,15 +1115,15 @@
         <v>25646</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="3">
         <v>12</v>
@@ -1135,10 +1135,10 @@
         <v>11</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H13" s="6">
         <v>39.6</v>
@@ -1151,15 +1151,15 @@
         <v>21776</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3">
         <v>13</v>
@@ -1171,10 +1171,10 @@
         <v>11</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H14" s="6">
         <v>4.97</v>
@@ -1187,15 +1187,15 @@
         <v>24222</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3">
         <v>14</v>
@@ -1207,10 +1207,10 @@
         <v>11</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H15" s="6">
         <v>22.5</v>
@@ -1223,15 +1223,15 @@
         <v>24767</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="3">
         <v>15</v>
@@ -1243,10 +1243,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H16" s="6">
         <v>197</v>
@@ -1259,15 +1259,15 @@
         <v>20226</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="3">
         <v>16</v>
@@ -1279,10 +1279,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H17" s="6">
         <v>126</v>
@@ -1295,15 +1295,15 @@
         <v>24534</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="3">
         <v>17</v>
@@ -1315,10 +1315,10 @@
         <v>11</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H18" s="6">
         <v>32.6</v>
@@ -1331,15 +1331,15 @@
         <v>24404</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="3">
         <v>18</v>
@@ -1351,10 +1351,10 @@
         <v>11</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H19" s="6">
         <v>221</v>
@@ -1367,15 +1367,15 @@
         <v>22119</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="3">
         <v>19</v>
@@ -1387,10 +1387,10 @@
         <v>11</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H20" s="6">
         <v>76.3</v>
@@ -1403,15 +1403,15 @@
         <v>21637</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="3">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>11</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H21" s="6">
         <v>68.7</v>
@@ -1439,15 +1439,15 @@
         <v>24301</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="3">
         <v>21</v>
@@ -1459,10 +1459,10 @@
         <v>11</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H22" s="6">
         <v>1.79</v>
@@ -1474,15 +1474,15 @@
         <v>37999</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" s="3">
         <v>22</v>
@@ -1494,10 +1494,10 @@
         <v>11</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H23" s="6">
         <v>5.92</v>
@@ -1510,15 +1510,15 @@
         <v>25329</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="3">
         <v>23</v>
@@ -1530,10 +1530,10 @@
         <v>11</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H24" s="6">
         <v>7.86</v>
@@ -1546,15 +1546,15 @@
         <v>19940</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" s="3">
         <v>24</v>
@@ -1566,10 +1566,10 @@
         <v>11</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H25" s="6">
         <v>11</v>
@@ -1582,15 +1582,15 @@
         <v>23252</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" s="3">
         <v>25</v>
@@ -1602,10 +1602,10 @@
         <v>11</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H26" s="6">
         <v>35.200000000000003</v>
@@ -1618,15 +1618,15 @@
         <v>6365</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="3">
         <v>26</v>
@@ -1638,10 +1638,10 @@
         <v>11</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H27" s="6">
         <v>78.3</v>
@@ -1654,15 +1654,15 @@
         <v>20966</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -1674,10 +1674,10 @@
         <v>11</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H28">
         <v>59.1</v>
@@ -1689,15 +1689,15 @@
         <v>21568</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
@@ -1709,10 +1709,10 @@
         <v>11</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H29">
         <v>11.2</v>
@@ -1724,15 +1724,15 @@
         <v>23282</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" s="3">
         <v>3</v>
@@ -1744,10 +1744,10 @@
         <v>11</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H30">
         <v>52</v>
@@ -1759,15 +1759,15 @@
         <v>22427</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" s="3">
         <v>4</v>
@@ -1779,10 +1779,10 @@
         <v>11</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H31">
         <v>14.4</v>
@@ -1794,15 +1794,15 @@
         <v>23524</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" s="3">
         <v>5</v>
@@ -1814,10 +1814,10 @@
         <v>11</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H32">
         <v>8.5</v>
@@ -1829,15 +1829,15 @@
         <v>25796</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" s="3">
         <v>6</v>
@@ -1849,10 +1849,10 @@
         <v>11</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H33">
         <v>3.66</v>
@@ -1864,15 +1864,15 @@
         <v>29637</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" s="3">
         <v>7</v>
@@ -1884,10 +1884,10 @@
         <v>11</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H34">
         <v>7.02</v>
@@ -1899,15 +1899,15 @@
         <v>27783</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35" s="3">
         <v>8</v>
@@ -1919,10 +1919,10 @@
         <v>11</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H35">
         <v>9.1</v>
@@ -1934,15 +1934,15 @@
         <v>28389</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C36" s="3">
         <v>9</v>
@@ -1954,10 +1954,10 @@
         <v>11</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H36">
         <v>49.3</v>
@@ -1969,15 +1969,15 @@
         <v>22385</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" s="3">
         <v>10</v>
@@ -1989,10 +1989,10 @@
         <v>11</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H37">
         <v>46.8</v>
@@ -2004,15 +2004,15 @@
         <v>22038</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C38" s="3">
         <v>11</v>
@@ -2024,10 +2024,10 @@
         <v>11</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H38">
         <v>48.5</v>
@@ -2039,15 +2039,15 @@
         <v>20701</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" s="3">
         <v>12</v>
@@ -2059,10 +2059,10 @@
         <v>11</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H39">
         <v>29.6</v>
@@ -2074,15 +2074,15 @@
         <v>21193</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C40" s="3">
         <v>13</v>
@@ -2094,10 +2094,10 @@
         <v>11</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H40">
         <v>1.92</v>
@@ -2109,15 +2109,15 @@
         <v>21911</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C41" s="3">
         <v>14</v>
@@ -2129,10 +2129,10 @@
         <v>11</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H41">
         <v>1.08</v>
@@ -2144,15 +2144,15 @@
         <v>220569</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42" s="3">
         <v>15</v>
@@ -2164,10 +2164,10 @@
         <v>11</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H42">
         <v>38</v>
@@ -2179,15 +2179,15 @@
         <v>20218</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C43" s="3">
         <v>16</v>
@@ -2199,10 +2199,10 @@
         <v>11</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H43">
         <v>62.4</v>
@@ -2214,15 +2214,15 @@
         <v>18197</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C44" s="3">
         <v>17</v>
@@ -2234,10 +2234,10 @@
         <v>11</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H44">
         <v>63.3</v>
@@ -2249,15 +2249,15 @@
         <v>22922</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C45" s="3">
         <v>18</v>
@@ -2269,10 +2269,10 @@
         <v>11</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H45">
         <v>45.2</v>
@@ -2284,15 +2284,15 @@
         <v>23209</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C46" s="3">
         <v>19</v>
@@ -2304,10 +2304,10 @@
         <v>11</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H46">
         <v>13.2</v>
@@ -2319,15 +2319,15 @@
         <v>21102</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C47" s="3">
         <v>20</v>
@@ -2339,10 +2339,10 @@
         <v>11</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H47">
         <v>1.21</v>
@@ -2354,15 +2354,15 @@
         <v>37250</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C48" s="3">
         <v>21</v>
@@ -2374,10 +2374,10 @@
         <v>11</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H48">
         <v>0.44700000000000001</v>
@@ -2389,15 +2389,15 @@
         <v>94084</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="3">
         <v>22</v>
@@ -2409,10 +2409,10 @@
         <v>11</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H49">
         <v>0.33300000000000002</v>
@@ -2424,15 +2424,15 @@
         <v>29917</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C50" s="3">
         <v>23</v>
@@ -2444,10 +2444,10 @@
         <v>11</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H50">
         <v>3.27</v>
@@ -2459,15 +2459,15 @@
         <v>28336</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C51" s="3">
         <v>24</v>
@@ -2479,10 +2479,10 @@
         <v>11</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H51">
         <v>4.47</v>
@@ -2494,15 +2494,15 @@
         <v>30428</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C52" s="3">
         <v>25</v>
@@ -2514,10 +2514,10 @@
         <v>11</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H52">
         <v>6.54</v>
@@ -2529,15 +2529,15 @@
         <v>29427</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C53" s="3">
         <v>26</v>
@@ -2549,10 +2549,10 @@
         <v>11</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H53">
         <v>11.5</v>
@@ -2564,7 +2564,7 @@
         <v>25669</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
